--- a/딥러닝 클라우드/결과 기록/CNN 기록.xlsx
+++ b/딥러닝 클라우드/결과 기록/CNN 기록.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YoungHo\Desktop\TIL\딥러닝 클라우드\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YoungHo\Desktop\TIL\딥러닝 클라우드\결과 기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9066527-B9A5-4276-9D6B-C668E3590817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96259DA1-7FE2-4DD4-BE57-17751F8FE3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="825" windowWidth="22245" windowHeight="12615" xr2:uid="{5B4BA605-0071-4AC8-99EA-8CAADC742FA9}"/>
+    <workbookView xWindow="540" yWindow="960" windowWidth="16620" windowHeight="12615" xr2:uid="{5B4BA605-0071-4AC8-99EA-8CAADC742FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>conv1d</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,22 @@
   </si>
   <si>
     <t>제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64(0.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16(0.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,15 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836731AD-A3F7-4FD0-97E0-2CBED01071F2}">
-  <dimension ref="D2:N3"/>
+  <dimension ref="C2:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G12" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -481,7 +497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -505,6 +521,52 @@
       </c>
       <c r="M3">
         <v>91.3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <v>92.27</v>
+      </c>
+      <c r="M8">
+        <v>91.7</v>
+      </c>
+      <c r="N8">
+        <v>92.57</v>
       </c>
     </row>
   </sheetData>
